--- a/public/files/Comments2_1.xlsx
+++ b/public/files/Comments2_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Academic Year</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Quater 4</t>
   </si>
   <si>
-    <t>2590081110</t>
-  </si>
-  <si>
     <t>Aiyarin Sajarattanachote</t>
   </si>
   <si>
@@ -227,18 +224,6 @@
   </si>
   <si>
     <t>Avan Ratanapanop</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tsfd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asda</t>
   </si>
   <si>
     <t>asd</t>
@@ -598,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,275 +639,254 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>2590081110</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/Comments2_1.xlsx
+++ b/public/files/Comments2_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="18855" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Excel sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Academic Year</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Quater 4</t>
   </si>
   <si>
+    <t>2590081110</t>
+  </si>
+  <si>
     <t>Aiyarin Sajarattanachote</t>
   </si>
   <si>
@@ -226,7 +229,19 @@
     <t>Avan Ratanapanop</t>
   </si>
   <si>
-    <t>asd</t>
+    <t xml:space="preserve">Dja </t>
+  </si>
+  <si>
+    <t>dmak</t>
+  </si>
+  <si>
+    <t>susu</t>
+  </si>
+  <si>
+    <t>pass it</t>
+  </si>
+  <si>
+    <t>get loose</t>
   </si>
 </sst>
 </file>
@@ -583,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,254 +654,266 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2590081110</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
